--- a/API Files/Acuity Research/Fund.xlsx
+++ b/API Files/Acuity Research/Fund.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar Guest\git\PE4.7Automation4\API Files\Acuity Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar\git\PE4.7Automation\API Files\Acuity Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="6255" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="6252"/>
   </bookViews>
   <sheets>
-    <sheet name="Fund" r:id="rId1" sheetId="1"/>
+    <sheet name="Fund" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="298">
   <si>
     <t>Fund</t>
   </si>
@@ -737,18 +737,6 @@
     <t>cflp05@gmail.com</t>
   </si>
   <si>
-    <t>Tata Sales ~!@#^&amp;*()_+=-[]{}|;':,.&lt;&gt;/? Fund</t>
-  </si>
-  <si>
-    <t>Reliance Manufacturing ~!@#^&amp;*()_+=-[]{}|;':,.&lt;&gt;/? Fund</t>
-  </si>
-  <si>
-    <t>Mahindra Automobile ~!@#^&amp;*()_+=-[]{}|;':,.&lt;&gt;/? Fund</t>
-  </si>
-  <si>
-    <t>BHEL Eelectrical~!@#^&amp;*()_+=-[]{}|;':,.&lt;&gt;/? Fund</t>
-  </si>
-  <si>
     <t>Actavis Generics Mutual Fund 2020</t>
   </si>
   <si>
@@ -923,14 +911,22 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Created</t>
+    <t>Tata Sales Special Characters</t>
+  </si>
+  <si>
+    <t>Reliance Manufacturing Special Characters</t>
+  </si>
+  <si>
+    <t>Mahindra Automobile Special Characters</t>
+  </si>
+  <si>
+    <t>BHEL Eelectrical Special Characters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1365,98 +1361,98 @@
     </border>
   </borders>
   <cellStyleXfs count="42">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="6" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="7" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="10" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="11" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="12" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="7" fontId="13" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="16" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle builtinId="30" customBuiltin="1" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="34" customBuiltin="1" name="20% - Accent2" xfId="23"/>
-    <cellStyle builtinId="38" customBuiltin="1" name="20% - Accent3" xfId="27"/>
-    <cellStyle builtinId="42" customBuiltin="1" name="20% - Accent4" xfId="31"/>
-    <cellStyle builtinId="46" customBuiltin="1" name="20% - Accent5" xfId="35"/>
-    <cellStyle builtinId="50" customBuiltin="1" name="20% - Accent6" xfId="39"/>
-    <cellStyle builtinId="31" customBuiltin="1" name="40% - Accent1" xfId="20"/>
-    <cellStyle builtinId="35" customBuiltin="1" name="40% - Accent2" xfId="24"/>
-    <cellStyle builtinId="39" customBuiltin="1" name="40% - Accent3" xfId="28"/>
-    <cellStyle builtinId="43" customBuiltin="1" name="40% - Accent4" xfId="32"/>
-    <cellStyle builtinId="47" customBuiltin="1" name="40% - Accent5" xfId="36"/>
-    <cellStyle builtinId="51" customBuiltin="1" name="40% - Accent6" xfId="40"/>
-    <cellStyle builtinId="32" customBuiltin="1" name="60% - Accent1" xfId="21"/>
-    <cellStyle builtinId="36" customBuiltin="1" name="60% - Accent2" xfId="25"/>
-    <cellStyle builtinId="40" customBuiltin="1" name="60% - Accent3" xfId="29"/>
-    <cellStyle builtinId="44" customBuiltin="1" name="60% - Accent4" xfId="33"/>
-    <cellStyle builtinId="48" customBuiltin="1" name="60% - Accent5" xfId="37"/>
-    <cellStyle builtinId="52" customBuiltin="1" name="60% - Accent6" xfId="41"/>
-    <cellStyle builtinId="29" customBuiltin="1" name="Accent1" xfId="18"/>
-    <cellStyle builtinId="33" customBuiltin="1" name="Accent2" xfId="22"/>
-    <cellStyle builtinId="37" customBuiltin="1" name="Accent3" xfId="26"/>
-    <cellStyle builtinId="41" customBuiltin="1" name="Accent4" xfId="30"/>
-    <cellStyle builtinId="45" customBuiltin="1" name="Accent5" xfId="34"/>
-    <cellStyle builtinId="49" customBuiltin="1" name="Accent6" xfId="38"/>
-    <cellStyle builtinId="27" customBuiltin="1" name="Bad" xfId="7"/>
-    <cellStyle builtinId="22" customBuiltin="1" name="Calculation" xfId="11"/>
-    <cellStyle builtinId="23" customBuiltin="1" name="Check Cell" xfId="13"/>
-    <cellStyle builtinId="53" customBuiltin="1" name="Explanatory Text" xfId="16"/>
-    <cellStyle builtinId="26" customBuiltin="1" name="Good" xfId="6"/>
-    <cellStyle builtinId="16" customBuiltin="1" name="Heading 1" xfId="2"/>
-    <cellStyle builtinId="17" customBuiltin="1" name="Heading 2" xfId="3"/>
-    <cellStyle builtinId="18" customBuiltin="1" name="Heading 3" xfId="4"/>
-    <cellStyle builtinId="19" customBuiltin="1" name="Heading 4" xfId="5"/>
-    <cellStyle builtinId="20" customBuiltin="1" name="Input" xfId="9"/>
-    <cellStyle builtinId="24" customBuiltin="1" name="Linked Cell" xfId="12"/>
-    <cellStyle builtinId="28" customBuiltin="1" name="Neutral" xfId="8"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="10" customBuiltin="1" name="Note" xfId="15"/>
-    <cellStyle builtinId="21" customBuiltin="1" name="Output" xfId="10"/>
-    <cellStyle builtinId="15" customBuiltin="1" name="Title" xfId="1"/>
-    <cellStyle builtinId="25" customBuiltin="1" name="Total" xfId="17"/>
-    <cellStyle builtinId="11" customBuiltin="1" name="Warning Text" xfId="14"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1473,10 +1469,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1511,7 +1507,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1546,7 +1542,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1640,21 +1636,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1671,7 +1667,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1723,70 +1719,67 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="52.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" width="52.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" t="s">
         <v>286</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>287</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>288</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>289</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>290</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>291</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>292</v>
       </c>
-      <c r="I1" t="s">
-        <v>293</v>
-      </c>
-      <c r="J1" t="s">
-        <v>294</v>
-      </c>
-      <c r="K1" t="s">
-        <v>295</v>
-      </c>
-      <c r="L1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>298</v>
-      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1821,10 +1814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>298</v>
-      </c>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -1859,10 +1849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>298</v>
-      </c>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -1897,10 +1884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>298</v>
-      </c>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -1935,10 +1919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>298</v>
-      </c>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -1973,10 +1954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>298</v>
-      </c>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -2011,10 +1989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>298</v>
-      </c>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -2049,10 +2024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>298</v>
-      </c>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -2087,10 +2059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>298</v>
-      </c>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -2125,10 +2094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>298</v>
-      </c>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -2163,10 +2129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>298</v>
-      </c>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>27</v>
       </c>
@@ -2201,10 +2164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>298</v>
-      </c>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>33</v>
       </c>
@@ -2239,10 +2199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>298</v>
-      </c>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -2277,10 +2234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>298</v>
-      </c>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -2315,10 +2269,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>298</v>
-      </c>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>41</v>
       </c>
@@ -2353,10 +2304,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>298</v>
-      </c>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>43</v>
       </c>
@@ -2391,10 +2339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>298</v>
-      </c>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -2429,10 +2374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>298</v>
-      </c>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>47</v>
       </c>
@@ -2467,10 +2409,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>298</v>
-      </c>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -2505,10 +2444,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>298</v>
-      </c>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>51</v>
       </c>
@@ -2543,10 +2479,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>298</v>
-      </c>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>53</v>
       </c>
@@ -2581,10 +2514,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>298</v>
-      </c>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>59</v>
       </c>
@@ -2619,10 +2549,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>298</v>
-      </c>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>62</v>
       </c>
@@ -2657,10 +2584,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>298</v>
-      </c>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>64</v>
       </c>
@@ -2695,10 +2619,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>298</v>
-      </c>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>66</v>
       </c>
@@ -2733,10 +2654,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>298</v>
-      </c>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>68</v>
       </c>
@@ -2771,10 +2689,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>298</v>
-      </c>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>70</v>
       </c>
@@ -2809,10 +2724,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>298</v>
-      </c>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>72</v>
       </c>
@@ -2847,10 +2759,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>298</v>
-      </c>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>74</v>
       </c>
@@ -2885,10 +2794,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>298</v>
-      </c>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>76</v>
       </c>
@@ -2923,10 +2829,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>298</v>
-      </c>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>78</v>
       </c>
@@ -2961,10 +2864,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>298</v>
-      </c>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>84</v>
       </c>
@@ -2999,10 +2899,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>298</v>
-      </c>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>87</v>
       </c>
@@ -3037,10 +2934,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>298</v>
-      </c>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>89</v>
       </c>
@@ -3075,10 +2969,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>298</v>
-      </c>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>91</v>
       </c>
@@ -3113,10 +3004,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>298</v>
-      </c>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>93</v>
       </c>
@@ -3151,10 +3039,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>298</v>
-      </c>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>96</v>
       </c>
@@ -3189,10 +3074,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>298</v>
-      </c>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>98</v>
       </c>
@@ -3227,10 +3109,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>298</v>
-      </c>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>100</v>
       </c>
@@ -3265,10 +3144,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>298</v>
-      </c>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>102</v>
       </c>
@@ -3303,10 +3179,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>298</v>
-      </c>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>104</v>
       </c>
@@ -3341,10 +3214,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>298</v>
-      </c>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>110</v>
       </c>
@@ -3379,10 +3249,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>298</v>
-      </c>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>113</v>
       </c>
@@ -3417,10 +3284,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>298</v>
-      </c>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>115</v>
       </c>
@@ -3455,10 +3319,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>298</v>
-      </c>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>117</v>
       </c>
@@ -3493,10 +3354,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>298</v>
-      </c>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>119</v>
       </c>
@@ -3531,10 +3389,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>298</v>
-      </c>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>121</v>
       </c>
@@ -3569,10 +3424,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>298</v>
-      </c>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>123</v>
       </c>
@@ -3607,10 +3459,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>298</v>
-      </c>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>125</v>
       </c>
@@ -3645,10 +3494,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>298</v>
-      </c>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>127</v>
       </c>
@@ -3683,10 +3529,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>298</v>
-      </c>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>129</v>
       </c>
@@ -3721,10 +3564,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>298</v>
-      </c>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>135</v>
       </c>
@@ -3759,10 +3599,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>298</v>
-      </c>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>138</v>
       </c>
@@ -3797,10 +3634,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>298</v>
-      </c>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>140</v>
       </c>
@@ -3835,10 +3669,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>298</v>
-      </c>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>142</v>
       </c>
@@ -3873,10 +3704,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>298</v>
-      </c>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>144</v>
       </c>
@@ -3911,10 +3739,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>298</v>
-      </c>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>146</v>
       </c>
@@ -3949,10 +3774,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>298</v>
-      </c>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>148</v>
       </c>
@@ -3987,10 +3809,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>298</v>
-      </c>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>150</v>
       </c>
@@ -4025,10 +3844,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>298</v>
-      </c>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>152</v>
       </c>
@@ -4063,10 +3879,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>298</v>
-      </c>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>154</v>
       </c>
@@ -4101,10 +3914,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>298</v>
-      </c>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>160</v>
       </c>
@@ -4139,10 +3949,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>298</v>
-      </c>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>163</v>
       </c>
@@ -4177,10 +3984,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>298</v>
-      </c>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>165</v>
       </c>
@@ -4215,10 +4019,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>298</v>
-      </c>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>167</v>
       </c>
@@ -4253,10 +4054,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>298</v>
-      </c>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>169</v>
       </c>
@@ -4291,10 +4089,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>298</v>
-      </c>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>171</v>
       </c>
@@ -4329,10 +4124,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>298</v>
-      </c>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>173</v>
       </c>
@@ -4367,10 +4159,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>298</v>
-      </c>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>175</v>
       </c>
@@ -4405,10 +4194,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>298</v>
-      </c>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>177</v>
       </c>
@@ -4443,10 +4229,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>298</v>
-      </c>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>179</v>
       </c>
@@ -4481,10 +4264,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>298</v>
-      </c>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>182</v>
       </c>
@@ -4519,10 +4299,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>298</v>
-      </c>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>183</v>
       </c>
@@ -4557,10 +4334,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>298</v>
-      </c>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>184</v>
       </c>
@@ -4595,10 +4369,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>298</v>
-      </c>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>185</v>
       </c>
@@ -4633,10 +4404,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>298</v>
-      </c>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>186</v>
       </c>
@@ -4671,10 +4439,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>298</v>
-      </c>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>189</v>
       </c>
@@ -4709,10 +4474,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>298</v>
-      </c>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>190</v>
       </c>
@@ -4747,10 +4509,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>298</v>
-      </c>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>191</v>
       </c>
@@ -4785,10 +4544,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>298</v>
-      </c>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>192</v>
       </c>
@@ -4823,10 +4579,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>298</v>
-      </c>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>193</v>
       </c>
@@ -4861,10 +4614,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>298</v>
-      </c>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>196</v>
       </c>
@@ -4899,10 +4649,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>298</v>
-      </c>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>197</v>
       </c>
@@ -4937,10 +4684,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>298</v>
-      </c>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>198</v>
       </c>
@@ -4975,10 +4719,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>298</v>
-      </c>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>199</v>
       </c>
@@ -5013,10 +4754,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>298</v>
-      </c>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>200</v>
       </c>
@@ -5051,10 +4789,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>298</v>
-      </c>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>201</v>
       </c>
@@ -5089,10 +4824,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>298</v>
-      </c>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>202</v>
       </c>
@@ -5127,10 +4859,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>298</v>
-      </c>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>203</v>
       </c>
@@ -5165,10 +4894,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>298</v>
-      </c>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>204</v>
       </c>
@@ -5203,10 +4929,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>298</v>
-      </c>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>205</v>
       </c>
@@ -5241,10 +4964,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>298</v>
-      </c>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>206</v>
       </c>
@@ -5279,10 +4999,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>298</v>
-      </c>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>207</v>
       </c>
@@ -5317,10 +5034,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>298</v>
-      </c>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>208</v>
       </c>
@@ -5355,10 +5069,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>298</v>
-      </c>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>209</v>
       </c>
@@ -5393,10 +5104,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>298</v>
-      </c>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>210</v>
       </c>
@@ -5431,10 +5139,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>298</v>
-      </c>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>213</v>
       </c>
@@ -5469,10 +5174,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>298</v>
-      </c>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>214</v>
       </c>
@@ -5507,10 +5209,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>298</v>
-      </c>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>215</v>
       </c>
@@ -5545,10 +5244,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>298</v>
-      </c>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>216</v>
       </c>
@@ -5583,10 +5279,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>298</v>
-      </c>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>217</v>
       </c>
@@ -5621,10 +5314,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>298</v>
-      </c>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>218</v>
       </c>
@@ -5659,10 +5349,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>298</v>
-      </c>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>219</v>
       </c>
@@ -5697,10 +5384,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>298</v>
-      </c>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>220</v>
       </c>
@@ -5735,10 +5419,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>298</v>
-      </c>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>221</v>
       </c>
@@ -5773,10 +5454,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>298</v>
-      </c>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>222</v>
       </c>
@@ -5811,10 +5489,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>298</v>
-      </c>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>226</v>
       </c>
@@ -5849,10 +5524,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>298</v>
-      </c>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>230</v>
       </c>
@@ -5887,10 +5559,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>298</v>
-      </c>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>232</v>
       </c>
@@ -5925,10 +5594,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>298</v>
-      </c>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>234</v>
       </c>
@@ -5963,12 +5629,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>298</v>
-      </c>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="C112" t="s">
         <v>34</v>
@@ -5983,12 +5646,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>298</v>
-      </c>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="C113" t="s">
         <v>34</v>
@@ -6003,12 +5663,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>298</v>
-      </c>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="C114" t="s">
         <v>34</v>
@@ -6023,12 +5680,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>298</v>
-      </c>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="C115" t="s">
         <v>34</v>
@@ -6043,12 +5697,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>298</v>
-      </c>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
@@ -6063,12 +5714,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>298</v>
-      </c>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
@@ -6083,12 +5731,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>298</v>
-      </c>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
@@ -6103,12 +5748,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>298</v>
-      </c>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
@@ -6123,12 +5765,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>298</v>
-      </c>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
@@ -6143,12 +5782,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>298</v>
-      </c>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C121" t="s">
         <v>2</v>
@@ -6163,12 +5799,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>298</v>
-      </c>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C122" t="s">
         <v>2</v>
@@ -6183,12 +5816,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>298</v>
-      </c>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C123" t="s">
         <v>2</v>
@@ -6203,12 +5833,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>298</v>
-      </c>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C124" t="s">
         <v>2</v>
@@ -6223,12 +5850,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>298</v>
-      </c>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
@@ -6243,12 +5867,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>298</v>
-      </c>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C126" t="s">
         <v>2</v>
@@ -6263,12 +5884,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>298</v>
-      </c>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C127" t="s">
         <v>34</v>
@@ -6283,12 +5901,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>298</v>
-      </c>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C128" t="s">
         <v>34</v>
@@ -6303,12 +5918,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>298</v>
-      </c>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C129" t="s">
         <v>34</v>
@@ -6323,12 +5935,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>298</v>
-      </c>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C130" t="s">
         <v>34</v>
@@ -6343,12 +5952,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>298</v>
-      </c>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C131" t="s">
         <v>34</v>
@@ -6363,12 +5969,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>298</v>
-      </c>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C132" t="s">
         <v>34</v>
@@ -6383,12 +5986,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>298</v>
-      </c>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C133" t="s">
         <v>34</v>
@@ -6403,12 +6003,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>298</v>
-      </c>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C134" t="s">
         <v>34</v>
@@ -6423,12 +6020,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>298</v>
-      </c>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C135" t="s">
         <v>34</v>
@@ -6443,12 +6037,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>298</v>
-      </c>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C136" t="s">
         <v>34</v>
@@ -6463,12 +6054,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>298</v>
-      </c>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C137" t="s">
         <v>34</v>
@@ -6483,12 +6071,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>298</v>
-      </c>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C138" t="s">
         <v>34</v>
@@ -6503,12 +6088,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>298</v>
-      </c>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C139" t="s">
         <v>34</v>
@@ -6523,12 +6105,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>298</v>
-      </c>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C140" t="s">
         <v>34</v>
@@ -6543,12 +6122,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>298</v>
-      </c>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C141" t="s">
         <v>2</v>
@@ -6566,12 +6142,9 @@
         <v>9876543210</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>298</v>
-      </c>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C142" t="s">
         <v>2</v>
@@ -6589,12 +6162,9 @@
         <v>9876543210</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>298</v>
-      </c>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C143" t="s">
         <v>2</v>
@@ -6612,12 +6182,9 @@
         <v>9876543210</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>298</v>
-      </c>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
@@ -6635,12 +6202,9 @@
         <v>9876543210</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>298</v>
-      </c>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C145" t="s">
         <v>2</v>
@@ -6658,12 +6222,9 @@
         <v>9876543210</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>298</v>
-      </c>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C146" t="s">
         <v>2</v>
@@ -6681,12 +6242,9 @@
         <v>9876543210</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>298</v>
-      </c>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C147" t="s">
         <v>2</v>
@@ -6704,12 +6262,9 @@
         <v>9876543210</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>298</v>
-      </c>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C148" t="s">
         <v>2</v>
@@ -6727,12 +6282,9 @@
         <v>9876543210</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>298</v>
-      </c>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
@@ -6750,12 +6302,9 @@
         <v>9876543210</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>298</v>
-      </c>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C150" t="s">
         <v>34</v>
@@ -6773,12 +6322,9 @@
         <v>8765432109</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>298</v>
-      </c>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C151" t="s">
         <v>34</v>
@@ -6796,12 +6342,9 @@
         <v>8765432109</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>298</v>
-      </c>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C152" t="s">
         <v>34</v>
@@ -6819,12 +6362,9 @@
         <v>8765432109</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>298</v>
-      </c>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C153" t="s">
         <v>34</v>
@@ -6842,12 +6382,9 @@
         <v>8765432109</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>298</v>
-      </c>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C154" t="s">
         <v>34</v>
@@ -6865,12 +6402,9 @@
         <v>8765432109</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>298</v>
-      </c>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C155" t="s">
         <v>34</v>
@@ -6888,12 +6422,9 @@
         <v>8765432109</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>298</v>
-      </c>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C156" t="s">
         <v>34</v>
@@ -6911,12 +6442,9 @@
         <v>8765432109</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>298</v>
-      </c>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C157" t="s">
         <v>34</v>
@@ -6934,12 +6462,9 @@
         <v>8765432109</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>298</v>
-      </c>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C158" t="s">
         <v>34</v>
@@ -6957,12 +6482,9 @@
         <v>8765432109</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>298</v>
-      </c>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C159" t="s">
         <v>34</v>
@@ -6980,12 +6502,9 @@
         <v>8765432109</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>298</v>
-      </c>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C160" t="s">
         <v>34</v>
@@ -7003,12 +6522,9 @@
         <v>8765432109</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>298</v>
-      </c>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C161" t="s">
         <v>34</v>
@@ -7027,7 +6543,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="200" orientation="portrait" r:id="rId1" verticalDpi="200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>